--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mfng</t>
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.7089138409594</v>
+        <v>14.09137833333333</v>
       </c>
       <c r="H2">
-        <v>10.7089138409594</v>
+        <v>42.274135</v>
       </c>
       <c r="I2">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201467</v>
       </c>
       <c r="J2">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N2">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O2">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P2">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q2">
-        <v>473.5100348572047</v>
+        <v>670.4531730377944</v>
       </c>
       <c r="R2">
-        <v>473.5100348572047</v>
+        <v>6034.07855734015</v>
       </c>
       <c r="S2">
-        <v>0.3482013844501406</v>
+        <v>0.3690116129796728</v>
       </c>
       <c r="T2">
-        <v>0.3482013844501406</v>
+        <v>0.3690116129796728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.7089138409594</v>
+        <v>14.09137833333333</v>
       </c>
       <c r="H3">
-        <v>10.7089138409594</v>
+        <v>42.274135</v>
       </c>
       <c r="I3">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201467</v>
       </c>
       <c r="J3">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N3">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q3">
-        <v>104.9536673075969</v>
+        <v>138.5143550991205</v>
       </c>
       <c r="R3">
-        <v>104.9536673075969</v>
+        <v>1246.629195892085</v>
       </c>
       <c r="S3">
-        <v>0.07717896046415466</v>
+        <v>0.07623709999666793</v>
       </c>
       <c r="T3">
-        <v>0.07717896046415466</v>
+        <v>0.07623709999666795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.7089138409594</v>
+        <v>14.09137833333333</v>
       </c>
       <c r="H4">
-        <v>10.7089138409594</v>
+        <v>42.274135</v>
       </c>
       <c r="I4">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201467</v>
       </c>
       <c r="J4">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N4">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q4">
-        <v>112.0415282539686</v>
+        <v>154.0703959935467</v>
       </c>
       <c r="R4">
-        <v>112.0415282539686</v>
+        <v>1386.63356394192</v>
       </c>
       <c r="S4">
-        <v>0.08239110553529552</v>
+        <v>0.08479901001943747</v>
       </c>
       <c r="T4">
-        <v>0.08239110553529552</v>
+        <v>0.08479901001943749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.7089138409594</v>
+        <v>14.09137833333333</v>
       </c>
       <c r="H5">
-        <v>10.7089138409594</v>
+        <v>42.274135</v>
       </c>
       <c r="I5">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201467</v>
       </c>
       <c r="J5">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N5">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q5">
-        <v>398.1919928772805</v>
+        <v>526.2343320703955</v>
       </c>
       <c r="R5">
-        <v>398.1919928772805</v>
+        <v>4736.10898863356</v>
       </c>
       <c r="S5">
-        <v>0.2928153428440904</v>
+        <v>0.2896348134243684</v>
       </c>
       <c r="T5">
-        <v>0.2928153428440904</v>
+        <v>0.2896348134243685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.66741703367573</v>
+        <v>0.231712</v>
       </c>
       <c r="H6">
-        <v>2.66741703367573</v>
+        <v>0.695136</v>
       </c>
       <c r="I6">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="J6">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N6">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O6">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P6">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q6">
-        <v>117.9436823708109</v>
+        <v>11.02461675189333</v>
       </c>
       <c r="R6">
-        <v>117.9436823708109</v>
+        <v>99.22155076703999</v>
       </c>
       <c r="S6">
-        <v>0.08673132661496569</v>
+        <v>0.006067853466433738</v>
       </c>
       <c r="T6">
-        <v>0.08673132661496569</v>
+        <v>0.006067853466433739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.66741703367573</v>
+        <v>0.231712</v>
       </c>
       <c r="H7">
-        <v>2.66741703367573</v>
+        <v>0.695136</v>
       </c>
       <c r="I7">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="J7">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N7">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q7">
-        <v>26.1422590638696</v>
+        <v>2.277664930250666</v>
       </c>
       <c r="R7">
-        <v>26.1422590638696</v>
+        <v>20.498984372256</v>
       </c>
       <c r="S7">
-        <v>0.01922402933116029</v>
+        <v>0.001253607028110303</v>
       </c>
       <c r="T7">
-        <v>0.01922402933116029</v>
+        <v>0.001253607028110303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.66741703367573</v>
+        <v>0.231712</v>
       </c>
       <c r="H8">
-        <v>2.66741703367573</v>
+        <v>0.695136</v>
       </c>
       <c r="I8">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="J8">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N8">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q8">
-        <v>27.90773045540926</v>
+        <v>2.533461152768</v>
       </c>
       <c r="R8">
-        <v>27.90773045540926</v>
+        <v>22.801150374912</v>
       </c>
       <c r="S8">
-        <v>0.02052229027071273</v>
+        <v>0.001394395050989729</v>
       </c>
       <c r="T8">
-        <v>0.02052229027071273</v>
+        <v>0.001394395050989729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.231712</v>
+      </c>
+      <c r="H9">
+        <v>0.695136</v>
+      </c>
+      <c r="I9">
+        <v>0.01347847424050084</v>
+      </c>
+      <c r="J9">
+        <v>0.01347847424050084</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>37.34441866666666</v>
+      </c>
+      <c r="N9">
+        <v>112.033256</v>
+      </c>
+      <c r="O9">
+        <v>0.3533499868001453</v>
+      </c>
+      <c r="P9">
+        <v>0.3533499868001453</v>
+      </c>
+      <c r="Q9">
+        <v>8.653149938090666</v>
+      </c>
+      <c r="R9">
+        <v>77.87834944281599</v>
+      </c>
+      <c r="S9">
+        <v>0.004762618694967071</v>
+      </c>
+      <c r="T9">
+        <v>0.004762618694967071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.735334333333333</v>
+      </c>
+      <c r="H10">
+        <v>8.206002999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="J10">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>47.57896333333333</v>
+      </c>
+      <c r="N10">
+        <v>142.73689</v>
+      </c>
+      <c r="O10">
+        <v>0.450188452948237</v>
+      </c>
+      <c r="P10">
+        <v>0.4501884529482371</v>
+      </c>
+      <c r="Q10">
+        <v>130.1443719500744</v>
+      </c>
+      <c r="R10">
+        <v>1171.29934755067</v>
+      </c>
+      <c r="S10">
+        <v>0.07163033384706827</v>
+      </c>
+      <c r="T10">
+        <v>0.07163033384706827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.735334333333333</v>
+      </c>
+      <c r="H11">
+        <v>8.206002999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="J11">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.829723666666666</v>
+      </c>
+      <c r="N11">
+        <v>29.489171</v>
+      </c>
+      <c r="O11">
+        <v>0.09300808131111737</v>
+      </c>
+      <c r="P11">
+        <v>0.09300808131111739</v>
+      </c>
+      <c r="Q11">
+        <v>26.88758063261255</v>
+      </c>
+      <c r="R11">
+        <v>241.988225693513</v>
+      </c>
+      <c r="S11">
+        <v>0.0147986912395477</v>
+      </c>
+      <c r="T11">
+        <v>0.01479869123954771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.735334333333333</v>
+      </c>
+      <c r="H12">
+        <v>8.206002999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="J12">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.933664</v>
+      </c>
+      <c r="N12">
+        <v>32.800992</v>
+      </c>
+      <c r="O12">
+        <v>0.1034534789405002</v>
+      </c>
+      <c r="P12">
+        <v>0.1034534789405003</v>
+      </c>
+      <c r="Q12">
+        <v>29.90722652833066</v>
+      </c>
+      <c r="R12">
+        <v>269.165038754976</v>
+      </c>
+      <c r="S12">
+        <v>0.01646067815737765</v>
+      </c>
+      <c r="T12">
+        <v>0.01646067815737765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.735334333333333</v>
+      </c>
+      <c r="H13">
+        <v>8.206002999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="J13">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>37.34441866666666</v>
+      </c>
+      <c r="N13">
+        <v>112.033256</v>
+      </c>
+      <c r="O13">
+        <v>0.3533499868001453</v>
+      </c>
+      <c r="P13">
+        <v>0.3533499868001453</v>
+      </c>
+      <c r="Q13">
+        <v>102.1494705373075</v>
+      </c>
+      <c r="R13">
+        <v>919.3452348357679</v>
+      </c>
+      <c r="S13">
+        <v>0.05622218285163746</v>
+      </c>
+      <c r="T13">
+        <v>0.05622218285163748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.66741703367573</v>
-      </c>
-      <c r="H9">
-        <v>2.66741703367573</v>
-      </c>
-      <c r="I9">
-        <v>0.1994132067063189</v>
-      </c>
-      <c r="J9">
-        <v>0.1994132067063189</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>37.1832287373793</v>
-      </c>
-      <c r="N9">
-        <v>37.1832287373793</v>
-      </c>
-      <c r="O9">
-        <v>0.3657509033335706</v>
-      </c>
-      <c r="P9">
-        <v>0.3657509033335706</v>
-      </c>
-      <c r="Q9">
-        <v>99.18317770114646</v>
-      </c>
-      <c r="R9">
-        <v>99.18317770114646</v>
-      </c>
-      <c r="S9">
-        <v>0.07293556048948016</v>
-      </c>
-      <c r="T9">
-        <v>0.07293556048948016</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1328386666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.398516</v>
+      </c>
+      <c r="I14">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="J14">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>47.57896333333333</v>
+      </c>
+      <c r="N14">
+        <v>142.73689</v>
+      </c>
+      <c r="O14">
+        <v>0.450188452948237</v>
+      </c>
+      <c r="P14">
+        <v>0.4501884529482371</v>
+      </c>
+      <c r="Q14">
+        <v>6.320326050582221</v>
+      </c>
+      <c r="R14">
+        <v>56.88293445523999</v>
+      </c>
+      <c r="S14">
+        <v>0.003478652655062186</v>
+      </c>
+      <c r="T14">
+        <v>0.003478652655062186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1328386666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.398516</v>
+      </c>
+      <c r="I15">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="J15">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.829723666666666</v>
+      </c>
+      <c r="N15">
+        <v>29.489171</v>
+      </c>
+      <c r="O15">
+        <v>0.09300808131111737</v>
+      </c>
+      <c r="P15">
+        <v>0.09300808131111739</v>
+      </c>
+      <c r="Q15">
+        <v>1.305767385581778</v>
+      </c>
+      <c r="R15">
+        <v>11.751906470236</v>
+      </c>
+      <c r="S15">
+        <v>0.0007186830467914273</v>
+      </c>
+      <c r="T15">
+        <v>0.0007186830467914275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1328386666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.398516</v>
+      </c>
+      <c r="I16">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="J16">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.933664</v>
+      </c>
+      <c r="N16">
+        <v>32.800992</v>
+      </c>
+      <c r="O16">
+        <v>0.1034534789405002</v>
+      </c>
+      <c r="P16">
+        <v>0.1034534789405003</v>
+      </c>
+      <c r="Q16">
+        <v>1.452413347541333</v>
+      </c>
+      <c r="R16">
+        <v>13.071720127872</v>
+      </c>
+      <c r="S16">
+        <v>0.0007993957126953903</v>
+      </c>
+      <c r="T16">
+        <v>0.0007993957126953905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1328386666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.398516</v>
+      </c>
+      <c r="I17">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="J17">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>37.34441866666666</v>
+      </c>
+      <c r="N17">
+        <v>112.033256</v>
+      </c>
+      <c r="O17">
+        <v>0.3533499868001453</v>
+      </c>
+      <c r="P17">
+        <v>0.3533499868001453</v>
+      </c>
+      <c r="Q17">
+        <v>4.960782783121777</v>
+      </c>
+      <c r="R17">
+        <v>44.647045048096</v>
+      </c>
+      <c r="S17">
+        <v>0.002730371829172273</v>
+      </c>
+      <c r="T17">
+        <v>0.002730371829172273</v>
       </c>
     </row>
   </sheetData>
